--- a/admin/production/exports/New File.xlsx
+++ b/admin/production/exports/New File.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>STT</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Thành Tiền (đ)</t>
-  </si>
-  <si>
-    <t>TH168800454</t>
   </si>
 </sst>
 </file>
@@ -394,7 +391,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:F1"/>
@@ -403,7 +400,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13" bestFit="true" customWidth="true" style="0"/>
@@ -431,30 +428,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>777118248377088</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>29000</v>
-      </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3">
         <v>0</v>
       </c>
     </row>

--- a/admin/production/exports/New File.xlsx
+++ b/admin/production/exports/New File.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>Thành Tiền (đ)</t>
+  </si>
+  <si>
+    <t>TH168800676</t>
+  </si>
+  <si>
+    <t>TH168800677</t>
+  </si>
+  <si>
+    <t>JDVC18389747036</t>
+  </si>
+  <si>
+    <t>TH168800678</t>
   </si>
 </sst>
 </file>
@@ -391,7 +403,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:F1"/>
@@ -400,7 +412,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13" bestFit="true" customWidth="true" style="0"/>
@@ -428,10 +440,70 @@
       </c>
     </row>
     <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>78661519105200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>28000</v>
+      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>78661508366253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>28000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>28000</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
